--- a/Тепловые расчеты/Тепловой расчет вручную.xlsx
+++ b/Тепловые расчеты/Тепловой расчет вручную.xlsx
@@ -1,22 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\Calculations\Тепловые расчеты\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D041CAB7-2CF5-43B1-A445-683C97D00A03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20370" windowHeight="8220"/>
+    <workbookView xWindow="2130" yWindow="1950" windowWidth="23250" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Потери в IGBT+Diode" sheetId="4" r:id="rId1"/>
     <sheet name="Потери в выпрямителе" sheetId="6" r:id="rId2"/>
     <sheet name="Тепловой расчет" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Пользователь</author>
+  </authors>
+  <commentList>
+    <comment ref="F65" authorId="0" shapeId="0" xr:uid="{D70EDCEE-4389-48E4-9B3D-08F41CB22EA2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Пользователь:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+E = U * Q
+Q = I * t
+E = U * I * t
+Prr = 0.125 * Err * f</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="159">
   <si>
     <t>F=</t>
   </si>
@@ -27,9 +77,6 @@
     <t>n=</t>
   </si>
   <si>
-    <t>f=</t>
-  </si>
-  <si>
     <t>Исходные данные</t>
   </si>
   <si>
@@ -90,18 +137,9 @@
     <t>Дж</t>
   </si>
   <si>
-    <t>Vfm</t>
-  </si>
-  <si>
     <t>падение на антипараллельном диоде</t>
   </si>
   <si>
-    <t>Ifm</t>
-  </si>
-  <si>
-    <t>средний ток диода</t>
-  </si>
-  <si>
     <t>Dm=</t>
   </si>
   <si>
@@ -147,9 +185,6 @@
     <t>Psw=</t>
   </si>
   <si>
-    <t>1.3 Суммарные потери</t>
-  </si>
-  <si>
     <t>2.3 Суммарные потери на диоде</t>
   </si>
   <si>
@@ -162,9 +197,6 @@
     <t>инвертор</t>
   </si>
   <si>
-    <t>пиковое значение синусоидального выходного тока (rms)</t>
-  </si>
-  <si>
     <t>напряжение насыщения IGBT (из графика в pdf)</t>
   </si>
   <si>
@@ -174,9 +206,6 @@
     <t>2. Потери в диоде</t>
   </si>
   <si>
-    <t>Для приблизительной оценки мощности потерь в режиме синусоидальной модуляции можно восопользоваться рекомендациями фирмы Mitsubishi</t>
-  </si>
-  <si>
     <t>ссылка</t>
   </si>
   <si>
@@ -229,9 +258,6 @@
   </si>
   <si>
     <t>энергия переключения диода (из графика в pdf)</t>
-  </si>
-  <si>
-    <t>Erec=</t>
   </si>
   <si>
     <t>Расчет мощности потерь в инверторе ИТЦЯ.656121.017</t>
@@ -398,33 +424,9 @@
     <t>падение на диоде</t>
   </si>
   <si>
-    <t>частота сети</t>
-  </si>
-  <si>
     <t>Расчет</t>
   </si>
   <si>
-    <t>Vto=</t>
-  </si>
-  <si>
-    <t>Thresholdvoltage (Tvj = 150°C )</t>
-  </si>
-  <si>
-    <t>rt=</t>
-  </si>
-  <si>
-    <t>Ohm</t>
-  </si>
-  <si>
-    <t>Slope resistance</t>
-  </si>
-  <si>
-    <t>I_fav=</t>
-  </si>
-  <si>
-    <t>средний ток через диод</t>
-  </si>
-  <si>
     <t>1. Потери на диодах/тиристорах</t>
   </si>
   <si>
@@ -467,40 +469,13 @@
     <t>сумма всех потерь</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>коэфф-поправка ВАХ для Vto и rt</t>
-  </si>
-  <si>
     <t>thyrystors</t>
   </si>
   <si>
     <t>условно считаем параметры схожими</t>
   </si>
   <si>
-    <t>Графики для определения Vto и rf для обратных диодов</t>
-  </si>
-  <si>
-    <t>Пример из книги</t>
-  </si>
-  <si>
-    <t>Данные из datasheet</t>
-  </si>
-  <si>
-    <t>treshold voltage (из графика ВАХ)</t>
-  </si>
-  <si>
-    <t>rf=</t>
-  </si>
-  <si>
-    <t>slope resistance (из графика ВАХ): rf=(Vf-Vto)/if</t>
-  </si>
-  <si>
     <t>PconD=</t>
-  </si>
-  <si>
-    <t>методика от Semikron</t>
   </si>
   <si>
     <t>потери на одном диоде</t>
@@ -526,12 +501,92 @@
   <si>
     <t>воздушный поток вентилятора (не использ.)</t>
   </si>
+  <si>
+    <t>1.3 Суммарные потери ключа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для приблизительной оценки мощности потерь в режиме </t>
+  </si>
+  <si>
+    <t>синусоидальной модуляции можно восопользоваться рекомендациями фирмы Mitsubishi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Считаем средние потери одного ключа за один период синуса. </t>
+  </si>
+  <si>
+    <t>За один период каждый ключ сработает один раз,
+поэтому итоговое значение умножаем на кол-во ключей</t>
+  </si>
+  <si>
+    <t>значение синусоидального выходного тока (rms)</t>
+  </si>
+  <si>
+    <t>Iout=</t>
+  </si>
+  <si>
+    <t>амплитудное значение тока через ключ</t>
+  </si>
+  <si>
+    <t>Adc</t>
+  </si>
+  <si>
+    <t>Iep=</t>
+  </si>
+  <si>
+    <t>ток через диод (=Icp)</t>
+  </si>
+  <si>
+    <t>Vec=</t>
+  </si>
+  <si>
+    <t>Err=</t>
+  </si>
+  <si>
+    <t>или Prr = 0.125*Err * f</t>
+  </si>
+  <si>
+    <t>линейное входное напряжение сети RMS</t>
+  </si>
+  <si>
+    <t>Vrms</t>
+  </si>
+  <si>
+    <t>Udc=</t>
+  </si>
+  <si>
+    <t>значение выходного тока выпрямителя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КПД(igbt) = </t>
+  </si>
+  <si>
+    <t>КПД инвертора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За период напряжения питания происходит шесть переключений
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вентилей и схема работает в шесть тактов, в связи с чем ее часто называют
+шестипульсной. Таким образом, 
+как в трехфазной схеме со средней точкой, т.е. 2π/3 (120º). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее значение
+выпрямленное напряжение имеет шестикратные пульсации, хотя угол проводимости каждого вентиля такой же, тока вентиля соответственно составляет: Ivd = Id/3 . </t>
+  </si>
+  <si>
+    <t>При этом интервал совместной работы двух вентилей равен π/3 (60º).</t>
+  </si>
+  <si>
+    <t>по методике ИТМО</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +637,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -786,7 +854,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -830,6 +898,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -862,6 +932,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -871,18 +949,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -918,18 +1002,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -965,18 +1055,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1010,20 +1106,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1070,7 +1172,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1104,81 +1212,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>4339</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>313864</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85402</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="15211425"/>
-          <a:ext cx="8572500" cy="5176414"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257954</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>39032</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Рисунок 11"/>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D601F0F2-5E6F-421D-91AD-9B83E765D2F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="20983575"/>
-          <a:ext cx="5582429" cy="6677957"/>
+          <a:off x="2905124" y="9829800"/>
+          <a:ext cx="2123615" cy="352102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1189,141 +1256,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>37505</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85280</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>55441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2051" name="Picture 3"/>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C1068F2-4C19-4ADE-81A7-62B359E81B34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="4400550" y="15420975"/>
-          <a:ext cx="1266825" cy="237530"/>
+          <a:off x="2895600" y="11715751"/>
+          <a:ext cx="1904555" cy="341190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>45938</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2857501" y="9915525"/>
-          <a:ext cx="4341712" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>77018</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2053" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="47625" y="13858876"/>
-          <a:ext cx="5210175" cy="1267642"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1333,100 +1303,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3073" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1143000" y="6096000"/>
-          <a:ext cx="3124200" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>84402</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3075" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4791075" y="6276976"/>
-          <a:ext cx="6724650" cy="2570426"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1442,13 +1318,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3076" name="Picture 4"/>
+        <xdr:cNvPr id="3076" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000040C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1494,7 +1376,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPr id="2049" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1541,7 +1429,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPr id="2050" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1588,7 +1482,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2053" name="Picture 5"/>
+        <xdr:cNvPr id="2053" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1635,7 +1535,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2054" name="Picture 6"/>
+        <xdr:cNvPr id="2054" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1682,7 +1588,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2055" name="Picture 7"/>
+        <xdr:cNvPr id="2055" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1729,7 +1641,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2056" name="Picture 8"/>
+        <xdr:cNvPr id="2056" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1776,7 +1694,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPr id="3073" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1823,7 +1747,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3074" name="Picture 2"/>
+        <xdr:cNvPr id="3074" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1901,7 +1831,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1933,9 +1863,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1967,6 +1915,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2142,64 +2108,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S110"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q54" sqref="Q54"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43417</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2212,12 +2178,12 @@
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -2229,7 +2195,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2242,9 +2208,9 @@
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2257,7 +2223,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2270,19 +2236,19 @@
       <c r="J14" s="10"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B15" s="10">
         <f>32000*B16</f>
         <v>35200</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -2292,9 +2258,9 @@
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B16" s="10">
         <f>1.1</f>
@@ -2302,7 +2268,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -2312,19 +2278,18 @@
       <c r="J16" s="10"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" s="10">
-        <f>B15/(B19*SQRT(3)*B38)</f>
-        <v>74.715917189245701</v>
+        <v>320</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -2334,19 +2299,19 @@
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="B18" s="10">
-        <f>2.05</f>
-        <v>2.0499999999999998</v>
+        <f>B15/(B17*SQRT(3)*B36)</f>
+        <v>74.715917189245701</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -2356,40 +2321,38 @@
       <c r="J18" s="10"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B19" s="10">
-        <v>320</v>
+        <f>B18*SQRT(2)</f>
+        <v>105.66426341417633</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+        <v>142</v>
+      </c>
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B20" s="10">
-        <f>B19*SQRT(2)</f>
-        <v>452.54833995939043</v>
+        <f>2.05</f>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -2399,19 +2362,19 @@
       <c r="J20" s="10"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B21" s="10">
-        <f>1.65*10^(-6)</f>
-        <v>1.6499999999999999E-6</v>
+        <f>B17*SQRT(2)</f>
+        <v>452.54833995939043</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -2421,19 +2384,19 @@
       <c r="J21" s="10"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="10">
-        <f>1.1+3.5</f>
-        <v>4.5999999999999996</v>
+        <f>1.65*10^(-6)</f>
+        <v>1.6499999999999999E-6</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -2443,18 +2406,19 @@
       <c r="J22" s="10"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B23" s="10">
-        <v>4000</v>
+        <f>1.1+3.5</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -2464,19 +2428,18 @@
       <c r="J23" s="10"/>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B24" s="10">
-        <f>8*10^(-3)</f>
-        <v>8.0000000000000002E-3</v>
+        <v>4000</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -2486,19 +2449,19 @@
       <c r="J24" s="10"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B25" s="10">
-        <f>7*10^(-3)</f>
-        <v>7.0000000000000001E-3</v>
+        <f>8*10^(-3)</f>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -2508,19 +2471,19 @@
       <c r="J25" s="10"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B26" s="10">
-        <f>B24+B25</f>
-        <v>1.4999999999999999E-2</v>
+        <f>7*10^(-3)</f>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -2530,11 +2493,20 @@
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="8"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="10">
+        <f>B25+B26</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -2543,10 +2515,8 @@
       <c r="J27" s="10"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="12" t="s">
-        <v>68</v>
-      </c>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -2558,19 +2528,13 @@
       <c r="J28" s="10"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1.65</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>25</v>
-      </c>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -2579,54 +2543,62 @@
       <c r="J29" s="10"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>150</v>
-      </c>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1.65</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31">
-        <f>(1.25-1)/75</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>152</v>
-      </c>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="10">
+        <f>8*10^(-3)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="B32" s="10">
-        <f>B17</f>
-        <v>74.715917189245701</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>27</v>
+        <f>B19</f>
+        <v>105.66426341417633</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -2636,20 +2608,11 @@
       <c r="J32" s="10"/>
       <c r="K32" s="11"/>
     </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="10">
-        <f>8*10^(-3)</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>70</v>
-      </c>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -2658,8 +2621,10 @@
       <c r="J33" s="10"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="8"/>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -2671,11 +2636,17 @@
       <c r="J34" s="10"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="8"/>
-      <c r="B35" s="10"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0.9</v>
+      </c>
       <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -2684,13 +2655,17 @@
       <c r="J35" s="10"/>
       <c r="K35" s="11"/>
     </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="10"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0.85</v>
+      </c>
       <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -2699,16 +2674,16 @@
       <c r="J36" s="10"/>
       <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -2718,16 +2693,16 @@
       <c r="J37" s="10"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B38" s="10">
-        <v>0.85</v>
+        <v>6</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -2737,266 +2712,232 @@
       <c r="J38" s="10"/>
       <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="1:19">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="15"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S43" s="2"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" t="s">
+        <v>65</v>
+      </c>
+      <c r="N51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="10">
-        <v>1</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10" t="s">
+      <c r="N53" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:19">
-      <c r="A40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="10">
-        <v>6</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="11"/>
-    </row>
-    <row r="41" spans="1:19">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15"/>
-    </row>
-    <row r="44" spans="1:19">
-      <c r="A44" s="5" t="s">
+      <c r="O53" s="24">
+        <f>K55*B38</f>
+        <v>452.46244855697495</v>
+      </c>
+      <c r="P53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J55" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="S45" s="2"/>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="A46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
-      <c r="A47" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
-      <c r="A49" t="s">
+      <c r="K55" s="2">
+        <f>(B69+F69)*B37</f>
+        <v>75.410408092829158</v>
+      </c>
+      <c r="L55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>34</v>
       </c>
-      <c r="E49" t="s">
-        <v>51</v>
-      </c>
-      <c r="M49" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="B57">
+        <f>B19*B20*(1/8+B35*B36/(3*3.14))</f>
+        <v>44.667548295984801</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57">
+        <f>B32*B30*(1/8-B35*B36/(3*3.14))</f>
+        <v>7.6345795420672786</v>
+      </c>
+      <c r="G57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>35</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="E59" t="s">
         <v>36</v>
       </c>
-      <c r="R51" s="24">
-        <f>N53*B40</f>
-        <v>415.41099168931544</v>
-      </c>
-      <c r="S51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
-      <c r="M53" s="2" t="s">
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63">
+        <f>B27*B24/3.14</f>
+        <v>19.108280254777068</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" t="s">
         <v>37</v>
       </c>
-      <c r="N53" s="2">
-        <f>(B67+F63)*B39</f>
-        <v>69.235165281552568</v>
-      </c>
-      <c r="O53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
-      <c r="A55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55">
-        <f>B17*B18*(1/8+B37*B38/(3*3.14))</f>
-        <v>31.584726299068471</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F55">
-        <f>B32*SQRT(2)*(1/(2*3.14)-B37*B38/8)*(B30)+B32^2*2*(1/8-B37*B38/(3*3.14))*B31</f>
-        <v>8.351075925159261</v>
-      </c>
-      <c r="G55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
-      <c r="A57" t="s">
+      <c r="F65">
+        <f>0.125*B31*B24</f>
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
         <v>39</v>
       </c>
-      <c r="E57" t="s">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="2">
+        <f>B57+B63</f>
+        <v>63.775828550761872</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
-      <c r="E59" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59">
-        <f>B33*B23/3.14</f>
-        <v>10.19108280254777</v>
-      </c>
-      <c r="G59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
-      <c r="A61" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61">
-        <f>B26*B23/3.14</f>
-        <v>19.108280254777068</v>
-      </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
-      <c r="A63" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="2">
-        <f>F55+F59</f>
-        <v>18.542158727707033</v>
-      </c>
-      <c r="G63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="2">
-        <f>B55+B61</f>
-        <v>50.693006553845535</v>
-      </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
-      <c r="J105" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" t="s">
-        <v>149</v>
-      </c>
+      <c r="F69" s="2">
+        <f>F57+F65</f>
+        <v>11.634579542067279</v>
+      </c>
+      <c r="G69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A47" r:id="rId1"/>
-    <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="B11" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A72" r:id="rId5"/>
+    <hyperlink ref="A46" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3009,12 +2950,12 @@
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3026,7 +2967,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3039,7 +2980,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3052,9 +2993,9 @@
       <c r="J6" s="10"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3067,19 +3008,19 @@
       <c r="J7" s="10"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B8" s="10">
         <f>'Потери в IGBT+Diode'!B15</f>
         <v>35200</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -3089,9 +3030,9 @@
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B9" s="10">
         <f>'Потери в IGBT+Diode'!B16</f>
@@ -3099,7 +3040,7 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -3109,19 +3050,17 @@
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="B10" s="10">
-        <f>B8/(B11*SQRT(3)*'Потери в IGBT+Diode'!B38)</f>
-        <v>74.715917189245701</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>12</v>
-      </c>
+        <f>0.9</f>
+        <v>0.9</v>
+      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -3131,18 +3070,18 @@
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="10">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -3152,40 +3091,40 @@
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="B12" s="10">
         <f>B11*SQRT(2)</f>
-        <v>452.54833995939043</v>
+        <v>565.68542494923804</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="21" t="s">
-        <v>3</v>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B13" s="10">
-        <v>50</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>120</v>
+        <f>(B8/B10)/B12</f>
+        <v>69.139329716017969</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -3195,17 +3134,11 @@
       <c r="J13" s="10"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="10">
-        <v>6</v>
-      </c>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="22" t="s">
-        <v>130</v>
-      </c>
+      <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -3214,8 +3147,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -3227,8 +3159,10 @@
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="8"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -3240,13 +3174,19 @@
       <c r="J16" s="10"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -3255,11 +3195,17 @@
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="8"/>
-      <c r="B18" s="10"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="10">
+        <v>6</v>
+      </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -3268,19 +3214,10 @@
       <c r="J18" s="10"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>119</v>
-      </c>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -3289,20 +3226,13 @@
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="10">
-        <f>0.83/2</f>
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>123</v>
-      </c>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -3311,20 +3241,13 @@
       <c r="J20" s="10"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="10">
-        <f>2.3*10^(-3)/2</f>
-        <v>1.15E-3</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>126</v>
-      </c>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -3333,160 +3256,95 @@
       <c r="J21" s="10"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="10">
-        <f>SQRT(B10^2*4/3.14^2)</f>
-        <v>47.589756171494074</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="10">
-        <v>2</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="12"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="11"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <f>B20*B22+B21*B10^2</f>
-        <v>26.169587334814793</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="18">
-        <f>B37*6</f>
-        <v>157.01752400888876</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>132</v>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <f>B17*B13/3</f>
+        <v>27.655731886407185</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="18">
+        <f>B33*B18</f>
+        <v>165.93439131844312</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{53EB73A7-BC20-4F5D-B091-AD26952BCA5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3496,23 +3354,23 @@
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3522,7 +3380,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3532,9 +3390,9 @@
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3544,7 +3402,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3554,99 +3412,99 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B7" s="38">
         <f>0.15</f>
         <v>0.15</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B8" s="38">
         <f>0.085</f>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B9" s="10">
         <f>150</f>
         <v>150</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B10" s="10">
         <v>6</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B11" s="10">
-        <f>'Потери в IGBT+Diode'!B67</f>
-        <v>50.693006553845535</v>
+        <f>'Потери в IGBT+Diode'!B69</f>
+        <v>63.775828550761872</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -3656,9 +3514,9 @@
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3668,7 +3526,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3678,99 +3536,99 @@
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B15" s="38">
         <f>0.26</f>
         <v>0.26</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B16" s="38">
         <f>0.15</f>
         <v>0.15</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B17" s="10">
         <f>150</f>
         <v>150</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B18" s="10">
         <v>6</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B19" s="10">
-        <f>'Потери в IGBT+Diode'!F63</f>
-        <v>18.542158727707033</v>
+        <f>'Потери в IGBT+Diode'!F69</f>
+        <v>11.634579542067279</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -3780,9 +3638,9 @@
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -3792,7 +3650,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -3802,63 +3660,63 @@
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B23" s="10">
         <f>0.35</f>
         <v>0.35</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B24" s="10">
         <f>0.165</f>
         <v>0.16500000000000001</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B25" s="10">
         <v>150</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>2</v>
       </c>
@@ -3867,33 +3725,33 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B27" s="10">
-        <f>'Потери в выпрямителе'!B37</f>
-        <v>26.169587334814793</v>
+        <f>'Потери в выпрямителе'!B33</f>
+        <v>27.655731886407185</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3903,7 +3761,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -3913,7 +3771,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -3923,7 +3781,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -3933,9 +3791,9 @@
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -3945,7 +3803,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3955,39 +3813,39 @@
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10">
         <v>3</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -3997,7 +3855,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -4007,44 +3865,44 @@
       <c r="G37" s="10"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B38" s="10">
         <f>0.05</f>
         <v>0.05</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B39" s="10">
         <v>2.37</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -4054,9 +3912,9 @@
       <c r="G40" s="10"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -4066,7 +3924,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4076,78 +3934,78 @@
       <c r="G42" s="10"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B43" s="10">
         <v>85</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B44" s="10">
-        <f>'Потери в IGBT+Diode'!R51</f>
-        <v>415.41099168931544</v>
+        <f>'Потери в IGBT+Diode'!O53</f>
+        <v>452.46244855697495</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B45" s="10">
         <f>B27*B26</f>
-        <v>157.01752400888876</v>
+        <v>165.93439131844312</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B46" s="10">
         <f>B44+B45</f>
-        <v>572.42851569820414</v>
+        <v>618.3968398754181</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -4157,162 +4015,162 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E51" s="23" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="G51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B53" s="18">
         <f>B10*(B11+B19+B27)*B38+B43</f>
-        <v>113.6214257849102</v>
+        <v>115.9198419937709</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E56" s="23" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="G56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B58" s="18">
         <f>B11*B8+B19*B16+B53+B26*B27*B24</f>
-        <v>146.61954661260978</v>
+        <v>150.46514891943889</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="63" spans="1:7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
       <c r="D63" s="27"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B64" s="29">
         <f>B11*B7+B58</f>
-        <v>154.22349759568661</v>
+        <v>160.03152320205317</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="31"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="30"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="30"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B67" s="29">
         <f>B19*B15+B58</f>
-        <v>151.4405078818136</v>
+        <v>153.49013960037638</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="31"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="30"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="31"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="30"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="30"/>
     </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1">
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B71" s="34">
         <f>B27*B23+B58</f>
-        <v>155.77890217979495</v>
+        <v>160.1446550796814</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4327,8 +4185,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D35" r:id="rId1"/>
-    <hyperlink ref="D34" r:id="rId2"/>
+    <hyperlink ref="D35" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D34" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>

--- a/Тепловые расчеты/Тепловой расчет вручную.xlsx
+++ b/Тепловые расчеты/Тепловой расчет вручную.xlsx
@@ -1,72 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\Calculations\Тепловые расчеты\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D041CAB7-2CF5-43B1-A445-683C97D00A03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="1950" windowWidth="23250" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20370" windowHeight="8220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Потери в IGBT+Diode" sheetId="4" r:id="rId1"/>
     <sheet name="Потери в выпрямителе" sheetId="6" r:id="rId2"/>
     <sheet name="Тепловой расчет" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Пользователь</author>
-  </authors>
-  <commentList>
-    <comment ref="F65" authorId="0" shapeId="0" xr:uid="{D70EDCEE-4389-48E4-9B3D-08F41CB22EA2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Пользователь:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-E = U * Q
-Q = I * t
-E = U * I * t
-Prr = 0.125 * Err * f</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="164">
   <si>
     <t>F=</t>
   </si>
@@ -77,6 +27,9 @@
     <t>n=</t>
   </si>
   <si>
+    <t>f=</t>
+  </si>
+  <si>
     <t>Исходные данные</t>
   </si>
   <si>
@@ -137,9 +90,18 @@
     <t>Дж</t>
   </si>
   <si>
+    <t>Vfm</t>
+  </si>
+  <si>
     <t>падение на антипараллельном диоде</t>
   </si>
   <si>
+    <t>Ifm</t>
+  </si>
+  <si>
+    <t>средний ток диода</t>
+  </si>
+  <si>
     <t>Dm=</t>
   </si>
   <si>
@@ -185,6 +147,9 @@
     <t>Psw=</t>
   </si>
   <si>
+    <t>1.3 Суммарные потери</t>
+  </si>
+  <si>
     <t>2.3 Суммарные потери на диоде</t>
   </si>
   <si>
@@ -197,6 +162,9 @@
     <t>инвертор</t>
   </si>
   <si>
+    <t>пиковое значение синусоидального выходного тока (rms)</t>
+  </si>
+  <si>
     <t>напряжение насыщения IGBT (из графика в pdf)</t>
   </si>
   <si>
@@ -206,6 +174,9 @@
     <t>2. Потери в диоде</t>
   </si>
   <si>
+    <t>Для приблизительной оценки мощности потерь в режиме синусоидальной модуляции можно восопользоваться рекомендациями фирмы Mitsubishi</t>
+  </si>
+  <si>
     <t>ссылка</t>
   </si>
   <si>
@@ -258,6 +229,9 @@
   </si>
   <si>
     <t>энергия переключения диода (из графика в pdf)</t>
+  </si>
+  <si>
+    <t>Erec=</t>
   </si>
   <si>
     <t>Расчет мощности потерь в инверторе ИТЦЯ.656121.017</t>
@@ -424,9 +398,33 @@
     <t>падение на диоде</t>
   </si>
   <si>
+    <t>частота сети</t>
+  </si>
+  <si>
     <t>Расчет</t>
   </si>
   <si>
+    <t>Vto=</t>
+  </si>
+  <si>
+    <t>Thresholdvoltage (Tvj = 150°C )</t>
+  </si>
+  <si>
+    <t>rt=</t>
+  </si>
+  <si>
+    <t>Ohm</t>
+  </si>
+  <si>
+    <t>Slope resistance</t>
+  </si>
+  <si>
+    <t>I_fav=</t>
+  </si>
+  <si>
+    <t>средний ток через диод</t>
+  </si>
+  <si>
     <t>1. Потери на диодах/тиристорах</t>
   </si>
   <si>
@@ -469,13 +467,40 @@
     <t>сумма всех потерь</t>
   </si>
   <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>коэфф-поправка ВАХ для Vto и rt</t>
+  </si>
+  <si>
     <t>thyrystors</t>
   </si>
   <si>
     <t>условно считаем параметры схожими</t>
   </si>
   <si>
+    <t>Графики для определения Vto и rf для обратных диодов</t>
+  </si>
+  <si>
+    <t>Пример из книги</t>
+  </si>
+  <si>
+    <t>Данные из datasheet</t>
+  </si>
+  <si>
+    <t>treshold voltage (из графика ВАХ)</t>
+  </si>
+  <si>
+    <t>rf=</t>
+  </si>
+  <si>
+    <t>slope resistance (из графика ВАХ): rf=(Vf-Vto)/if</t>
+  </si>
+  <si>
     <t>PconD=</t>
+  </si>
+  <si>
+    <t>методика от Semikron</t>
   </si>
   <si>
     <t>потери на одном диоде</t>
@@ -502,91 +527,26 @@
     <t>воздушный поток вентилятора (не использ.)</t>
   </si>
   <si>
-    <t>1.3 Суммарные потери ключа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для приблизительной оценки мощности потерь в режиме </t>
-  </si>
-  <si>
-    <t>синусоидальной модуляции можно восопользоваться рекомендациями фирмы Mitsubishi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Считаем средние потери одного ключа за один период синуса. </t>
-  </si>
-  <si>
-    <t>За один период каждый ключ сработает один раз,
-поэтому итоговое значение умножаем на кол-во ключей</t>
-  </si>
-  <si>
-    <t>значение синусоидального выходного тока (rms)</t>
-  </si>
-  <si>
-    <t>Iout=</t>
-  </si>
-  <si>
-    <t>амплитудное значение тока через ключ</t>
-  </si>
-  <si>
-    <t>Adc</t>
-  </si>
-  <si>
-    <t>Iep=</t>
-  </si>
-  <si>
-    <t>ток через диод (=Icp)</t>
-  </si>
-  <si>
-    <t>Vec=</t>
-  </si>
-  <si>
-    <t>Err=</t>
-  </si>
-  <si>
-    <t>или Prr = 0.125*Err * f</t>
-  </si>
-  <si>
-    <t>линейное входное напряжение сети RMS</t>
-  </si>
-  <si>
-    <t>Vrms</t>
-  </si>
-  <si>
-    <t>Udc=</t>
-  </si>
-  <si>
-    <t>значение выходного тока выпрямителя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КПД(igbt) = </t>
-  </si>
-  <si>
-    <t>КПД инвертора</t>
-  </si>
-  <si>
-    <t xml:space="preserve">За период напряжения питания происходит шесть переключений
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">вентилей и схема работает в шесть тактов, в связи с чем ее часто называют
-шестипульсной. Таким образом, 
-как в трехфазной схеме со средней точкой, т.е. 2π/3 (120º). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Среднее значение
-выпрямленное напряжение имеет шестикратные пульсации, хотя угол проводимости каждого вентиля такой же, тока вентиля соответственно составляет: Ivd = Id/3 . </t>
-  </si>
-  <si>
-    <t>При этом интервал совместной работы двух вентилей равен π/3 (60º).</t>
-  </si>
-  <si>
-    <t>по методике ИТМО</t>
+    <t>Ifav – среднее значение тока через мост</t>
+  </si>
+  <si>
+    <t>Ifrms – среднеквадратичное значение тока через мост</t>
+  </si>
+  <si>
+    <t>Для синуса: Ifrms / Ifav = sqrt(3)</t>
+  </si>
+  <si>
+    <t>Для того, чтобы найти Vto и rf я использовал график ВАХ диодов и делал на нем построения, согласно рисунку ниже и описанию rf.</t>
+  </si>
+  <si>
+    <t>Pf=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,17 +599,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -854,7 +808,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -898,8 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -932,14 +885,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -949,24 +894,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1002,24 +941,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1055,24 +988,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1106,26 +1033,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1172,13 +1093,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1212,40 +1127,81 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>313864</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>85402</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>4339</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D601F0F2-5E6F-421D-91AD-9B83E765D2F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15211425"/>
+          <a:ext cx="8572500" cy="5176414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257954</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>39032</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2905124" y="9829800"/>
-          <a:ext cx="2123615" cy="352102"/>
+          <a:off x="0" y="20983575"/>
+          <a:ext cx="5582429" cy="6677957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1256,44 +1212,141 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85280</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>55441</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>37505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C1068F2-4C19-4ADE-81A7-62B359E81B34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2051" name="Picture 3"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2895600" y="11715751"/>
-          <a:ext cx="1904555" cy="341190"/>
+          <a:off x="4400550" y="15420975"/>
+          <a:ext cx="1266825" cy="237530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45938</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2857501" y="9915525"/>
+          <a:ext cx="4341712" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>77018</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2053" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="47625" y="13858876"/>
+          <a:ext cx="5210175" cy="1267642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1303,6 +1356,53 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>84402</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3075" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4791075" y="6276976"/>
+          <a:ext cx="6724650" cy="2570426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1318,19 +1418,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3076" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000040C0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3076" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1356,6 +1450,144 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Рисунок 6" descr="image007"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4895850" y="10077450"/>
+          <a:ext cx="5438775" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Рисунок 4" descr="image009"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4895850" y="11020425"/>
+          <a:ext cx="5562600" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Рисунок 7" descr="image012"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4895850" y="13068300"/>
+          <a:ext cx="5791200" cy="3495675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1376,13 +1608,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001080000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1429,13 +1655,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002080000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1482,13 +1702,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2053" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005080000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2053" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1535,13 +1749,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2054" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006080000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2054" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1588,13 +1796,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2055" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007080000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2055" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1641,13 +1843,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2056" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008080000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2056" name="Picture 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1694,13 +1890,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3073" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1747,13 +1937,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3074" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3074" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1831,7 +2015,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1863,27 +2047,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1915,24 +2081,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2108,64 +2256,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>43417</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2178,12 +2326,12 @@
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -2195,7 +2343,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="8"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2208,9 +2356,9 @@
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2223,7 +2371,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="12"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2236,19 +2384,19 @@
       <c r="J14" s="10"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="20" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B15" s="10">
         <f>32000*B16</f>
         <v>35200</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -2258,9 +2406,9 @@
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B16" s="10">
         <f>1.1</f>
@@ -2268,7 +2416,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -2278,18 +2426,19 @@
       <c r="J16" s="10"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" s="10">
-        <v>320</v>
+        <f>B15/(B19*SQRT(3)*B38)</f>
+        <v>74.715917189245701</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -2299,19 +2448,19 @@
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="B18" s="10">
-        <f>B15/(B17*SQRT(3)*B36)</f>
-        <v>74.715917189245701</v>
+        <f>2.05</f>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -2321,38 +2470,40 @@
       <c r="J18" s="10"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B19" s="10">
-        <f>B18*SQRT(2)</f>
-        <v>105.66426341417633</v>
+        <v>320</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" t="s">
-        <v>141</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B20" s="10">
-        <f>2.05</f>
-        <v>2.0499999999999998</v>
+        <f>B19*SQRT(2)</f>
+        <v>452.54833995939043</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -2362,19 +2513,19 @@
       <c r="J20" s="10"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B21" s="10">
-        <f>B17*SQRT(2)</f>
-        <v>452.54833995939043</v>
+        <f>1.65*10^(-6)</f>
+        <v>1.6499999999999999E-6</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -2384,19 +2535,19 @@
       <c r="J21" s="10"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B22" s="10">
-        <f>1.65*10^(-6)</f>
-        <v>1.6499999999999999E-6</v>
+        <f>1.1+3.5</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -2406,19 +2557,18 @@
       <c r="J22" s="10"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="8" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B23" s="10">
-        <f>1.1+3.5</f>
-        <v>4.5999999999999996</v>
+        <v>4000</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -2428,18 +2578,19 @@
       <c r="J23" s="10"/>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="8" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B24" s="10">
-        <v>4000</v>
+        <f>8*10^(-3)</f>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -2449,19 +2600,19 @@
       <c r="J24" s="10"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B25" s="10">
-        <f>8*10^(-3)</f>
-        <v>8.0000000000000002E-3</v>
+        <f>7*10^(-3)</f>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -2471,19 +2622,19 @@
       <c r="J25" s="10"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="8" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B26" s="10">
-        <f>7*10^(-3)</f>
-        <v>7.0000000000000001E-3</v>
+        <f>B24+B25</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -2493,20 +2644,11 @@
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="10">
-        <f>B25+B26</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>53</v>
-      </c>
+    <row r="27" spans="1:11">
+      <c r="A27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -2515,8 +2657,10 @@
       <c r="J27" s="10"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+    <row r="28" spans="1:11">
+      <c r="A28" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -2528,13 +2672,19 @@
       <c r="J28" s="10"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+    <row r="29" spans="1:11">
+      <c r="A29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1.65</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -2543,62 +2693,54 @@
       <c r="J29" s="10"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="10">
-        <v>1.65</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+    <row r="30" spans="1:11">
+      <c r="A30" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>150</v>
+      </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="10">
-        <f>8*10^(-3)</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+    <row r="31" spans="1:11">
+      <c r="A31" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31">
+        <f>(1.25-1)/75</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>152</v>
+      </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="8" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="B32" s="10">
-        <f>B19</f>
-        <v>105.66426341417633</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>144</v>
+        <f>B17</f>
+        <v>74.715917189245701</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -2608,11 +2750,20 @@
       <c r="J32" s="10"/>
       <c r="K32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+    <row r="33" spans="1:19">
+      <c r="A33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="10">
+        <f>8*10^(-3)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -2621,10 +2772,8 @@
       <c r="J33" s="10"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>62</v>
-      </c>
+    <row r="34" spans="1:19">
+      <c r="A34" s="8"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -2636,17 +2785,11 @@
       <c r="J34" s="10"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="10">
-        <v>0.9</v>
-      </c>
+    <row r="35" spans="1:19">
+      <c r="A35" s="8"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -2655,17 +2798,13 @@
       <c r="J35" s="10"/>
       <c r="K35" s="11"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="10">
-        <v>0.85</v>
-      </c>
+    <row r="36" spans="1:19">
+      <c r="A36" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="10"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -2674,16 +2813,16 @@
       <c r="J36" s="10"/>
       <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37" s="10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -2693,16 +2832,16 @@
       <c r="J37" s="10"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="8" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B38" s="10">
-        <v>6</v>
+        <v>0.85</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -2712,232 +2851,266 @@
       <c r="J38" s="10"/>
       <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S43" s="2"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="39" spans="1:19">
+      <c r="A39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="10">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="10">
+        <v>6</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="15"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+      <c r="M49" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R51" s="24">
+        <f>N53*B40</f>
+        <v>415.41099168931544</v>
+      </c>
+      <c r="S51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="M53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N53" s="2">
+        <f>(B67+F63)*B39</f>
+        <v>69.235165281552568</v>
+      </c>
+      <c r="O53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55">
+        <f>B17*B18*(1/8+B37*B38/(3*3.14))</f>
+        <v>31.584726299068471</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55">
+        <f>B32*SQRT(2)*(1/(2*3.14)-B37*B38/8)*(B30)+B32^2*2*(1/8-B37*B38/(3*3.14))*B31</f>
+        <v>8.351075925159261</v>
+      </c>
+      <c r="G55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59">
+        <f>B33*B23/3.14</f>
+        <v>10.19108280254777</v>
+      </c>
+      <c r="G59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61">
+        <f>B26*B23/3.14</f>
+        <v>19.108280254777068</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="2">
+        <f>F55+F59</f>
+        <v>18.542158727707033</v>
+      </c>
+      <c r="G63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" t="s">
-        <v>45</v>
-      </c>
-      <c r="J51" t="s">
-        <v>65</v>
-      </c>
-      <c r="N51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" t="s">
-        <v>31</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O53" s="24">
-        <f>K55*B38</f>
-        <v>452.46244855697495</v>
-      </c>
-      <c r="P53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K55" s="2">
-        <f>(B69+F69)*B37</f>
-        <v>75.410408092829158</v>
-      </c>
-      <c r="L55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57">
-        <f>B19*B20*(1/8+B35*B36/(3*3.14))</f>
-        <v>44.667548295984801</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" t="s">
-        <v>129</v>
-      </c>
-      <c r="F57">
-        <f>B32*B30*(1/8-B35*B36/(3*3.14))</f>
-        <v>7.6345795420672786</v>
-      </c>
-      <c r="G57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>35</v>
-      </c>
-      <c r="E59" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63">
-        <f>B27*B24/3.14</f>
-        <v>19.108280254777068</v>
-      </c>
-      <c r="C63" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="B67" s="2">
+        <f>B55+B61</f>
+        <v>50.693006553845535</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65">
-        <f>0.125*B31*B24</f>
-        <v>4</v>
-      </c>
-      <c r="G65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" s="2">
-        <f>B57+B63</f>
-        <v>63.775828550761872</v>
-      </c>
-      <c r="C69" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F69" s="2">
-        <f>F57+F65</f>
-        <v>11.634579542067279</v>
-      </c>
-      <c r="G69" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="J105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A46" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A47" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A72" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId5"/>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2950,12 +3123,12 @@
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -2967,7 +3140,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="8"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2980,7 +3153,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2993,9 +3166,9 @@
       <c r="J6" s="10"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3008,19 +3181,19 @@
       <c r="J7" s="10"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="20" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B8" s="10">
         <f>'Потери в IGBT+Diode'!B15</f>
         <v>35200</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -3030,9 +3203,9 @@
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B9" s="10">
         <f>'Потери в IGBT+Diode'!B16</f>
@@ -3040,7 +3213,7 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -3050,17 +3223,19 @@
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="8" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="B10" s="10">
-        <f>0.9</f>
-        <v>0.9</v>
-      </c>
-      <c r="C10" s="10"/>
+        <f>B8/(B11*SQRT(3)*'Потери в IGBT+Diode'!B38)</f>
+        <v>74.715917189245701</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D10" s="10" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -3070,18 +3245,18 @@
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="10">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -3091,40 +3266,40 @@
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="8" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="B12" s="10">
         <f>B11*SQRT(2)</f>
-        <v>565.68542494923804</v>
+        <v>452.54833995939043</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>10</v>
+    <row r="13" spans="1:11">
+      <c r="A13" s="21" t="s">
+        <v>3</v>
       </c>
       <c r="B13" s="10">
-        <f>(B8/B10)/B12</f>
-        <v>69.139329716017969</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>151</v>
+        <v>50</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -3134,11 +3309,17 @@
       <c r="J13" s="10"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="10"/>
+    <row r="14" spans="1:11">
+      <c r="A14" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="10">
+        <v>6</v>
+      </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -3147,7 +3328,8 @@
       <c r="J14" s="10"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
+      <c r="A15" s="8"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -3159,10 +3341,8 @@
       <c r="J15" s="10"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>61</v>
-      </c>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -3174,19 +3354,13 @@
       <c r="J16" s="10"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>111</v>
-      </c>
+    <row r="17" spans="1:11">
+      <c r="A17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -3195,17 +3369,11 @@
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="10">
-        <v>6</v>
-      </c>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="22" t="s">
-        <v>114</v>
-      </c>
+      <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -3214,10 +3382,19 @@
       <c r="J18" s="10"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+    <row r="19" spans="1:11">
+      <c r="A19" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -3226,13 +3403,20 @@
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+    <row r="20" spans="1:11">
+      <c r="A20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="10">
+        <f>0.83/2</f>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -3241,13 +3425,20 @@
       <c r="J20" s="10"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="22"/>
+    <row r="21" spans="1:11">
+      <c r="A21" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="10">
+        <f>2.3*10^(-3)/2</f>
+        <v>1.15E-3</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -3256,95 +3447,179 @@
       <c r="J21" s="10"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="10">
+        <f>SQRT(B10^2*4/3.14^2)</f>
+        <v>47.589756171494074</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="10">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="12"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34">
+        <f>B20*B22+B21*B10^2</f>
+        <v>26.169587334814793</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <f>B17*B13/3</f>
-        <v>27.655731886407185</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="18">
-        <f>B33*B18</f>
-        <v>165.93439131844312</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>116</v>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="18">
+        <f>B34*B14</f>
+        <v>157.01752400888876</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="H48" s="39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" s="39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" s="39"/>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" s="39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8">
+      <c r="H67" s="39" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{53EB73A7-BC20-4F5D-B091-AD26952BCA5B}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3354,23 +3629,23 @@
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3380,7 +3655,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3390,9 +3665,9 @@
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3402,7 +3677,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3412,99 +3687,99 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="37" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B7" s="38">
         <f>0.15</f>
         <v>0.15</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="37" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B8" s="38">
         <f>0.085</f>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B9" s="10">
         <f>150</f>
         <v>150</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B10" s="10">
         <v>6</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B11" s="10">
-        <f>'Потери в IGBT+Diode'!B69</f>
-        <v>63.775828550761872</v>
+        <f>'Потери в IGBT+Diode'!B67</f>
+        <v>50.693006553845535</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="8"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -3514,9 +3789,9 @@
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3526,7 +3801,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="8"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3536,99 +3811,99 @@
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="37" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B15" s="38">
         <f>0.26</f>
         <v>0.26</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="37" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B16" s="38">
         <f>0.15</f>
         <v>0.15</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B17" s="10">
         <f>150</f>
         <v>150</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B18" s="10">
         <v>6</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B19" s="10">
-        <f>'Потери в IGBT+Diode'!F69</f>
-        <v>11.634579542067279</v>
+        <f>'Потери в IGBT+Diode'!F63</f>
+        <v>18.542158727707033</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="8"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -3638,9 +3913,9 @@
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -3650,7 +3925,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="8"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -3660,63 +3935,63 @@
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="37" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B23" s="10">
         <f>0.35</f>
         <v>0.35</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="37" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B24" s="10">
         <f>0.165</f>
         <v>0.16500000000000001</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B25" s="10">
         <v>150</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
         <v>2</v>
       </c>
@@ -3725,33 +4000,33 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B27" s="10">
-        <f>'Потери в выпрямителе'!B33</f>
-        <v>27.655731886407185</v>
+        <f>'Потери в выпрямителе'!B34</f>
+        <v>26.169587334814793</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="8"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3761,7 +4036,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="8"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -3771,7 +4046,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="8"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -3781,7 +4056,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="8"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -3791,9 +4066,9 @@
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="12" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -3803,7 +4078,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="8"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3813,39 +4088,39 @@
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10">
         <v>3</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -3855,7 +4130,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="8"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -3865,44 +4140,44 @@
       <c r="G37" s="10"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B38" s="10">
         <f>0.05</f>
         <v>0.05</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B39" s="10">
         <v>2.37</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="8"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -3912,9 +4187,9 @@
       <c r="G40" s="10"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="12" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -3924,7 +4199,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="8"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -3934,78 +4209,78 @@
       <c r="G42" s="10"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B43" s="10">
         <v>85</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B44" s="10">
-        <f>'Потери в IGBT+Diode'!O53</f>
-        <v>452.46244855697495</v>
+        <f>'Потери в IGBT+Diode'!R51</f>
+        <v>415.41099168931544</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B45" s="10">
         <f>B27*B26</f>
-        <v>165.93439131844312</v>
+        <v>157.01752400888876</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B46" s="10">
         <f>B44+B45</f>
-        <v>618.3968398754181</v>
+        <v>572.42851569820414</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -4015,162 +4290,162 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="E51" s="23" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="G51" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B53" s="18">
         <f>B10*(B11+B19+B27)*B38+B43</f>
-        <v>115.9198419937709</v>
+        <v>113.6214257849102</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="E56" s="23" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="G56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="17"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B58" s="18">
         <f>B11*B8+B19*B16+B53+B26*B27*B24</f>
-        <v>150.46514891943889</v>
+        <v>146.61954661260978</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="E61" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="63" spans="1:7">
       <c r="A63" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
       <c r="D63" s="27"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B64" s="29">
         <f>B11*B7+B58</f>
-        <v>160.03152320205317</v>
+        <v>154.22349759568661</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="31"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="30"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="32" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="30"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B67" s="29">
         <f>B19*B15+B58</f>
-        <v>153.49013960037638</v>
+        <v>151.4405078818136</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="31"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="30"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="31"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="30"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="32" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="30"/>
     </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15.75" thickBot="1">
       <c r="A71" s="33" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B71" s="34">
         <f>B27*B23+B58</f>
-        <v>160.1446550796814</v>
+        <v>155.77890217979495</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="19"/>
       <c r="B75" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1"/>
       <c r="B76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4185,8 +4460,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D35" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D34" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D35" r:id="rId1"/>
+    <hyperlink ref="D34" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
